--- a/Assets/06.Table/DragonTowerTable.xlsx
+++ b/Assets/06.Table/DragonTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5000B4E-D5A5-42FD-A828-73C0F83EB698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286D9C5-AF52-44FF-A5D3-94F62F9B042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonTowerTable" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1487,7 @@
         <v>9047</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D51" si="0">D3+1</f>
+        <f t="shared" ref="D18:D61" si="0">D3+1</f>
         <v>2</v>
       </c>
       <c r="E18">
@@ -2440,8 +2444,7 @@
         <v>9047</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2473,8 +2476,7 @@
         <v>9047</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2506,8 +2508,7 @@
         <v>9047</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2539,8 +2540,7 @@
         <v>9047</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2572,8 +2572,7 @@
         <v>9047</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2594,9 +2593,338 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>9047</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2.25474E+155</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>9047</v>
+      </c>
+      <c r="D53">
+        <f>D47+1</f>
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3.1258899999999999E+155</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>9047</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D61" si="1">D48+1</f>
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3.9970399999999998E+155</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>9047</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4.8681899999999997E+155</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>9047</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5.7393400000000001E+155</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9047</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>6.6104899999999996E+155</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>9047</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>7.48164E+155</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>9047</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>8.3527900000000003E+155</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>9047</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>9.2239399999999998E+155</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>9047</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1.009509E+156</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J7 E8:J31 A8:D51 E32:E51 G32:J51">
+  <conditionalFormatting sqref="A2:J7 E8:J31 E32:E61 G32:J61 A8:D61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2610,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4314,11 +4642,11 @@
         <v>152</v>
       </c>
       <c r="N45" s="17">
-        <f t="shared" ref="N45" si="18">POWER(10,M45)</f>
+        <f t="shared" ref="N45:N46" si="18">POWER(10,M45)</f>
         <v>1E+152</v>
       </c>
       <c r="O45" s="17" t="str">
-        <f t="shared" ref="O45" si="19">RIGHT(N45,M45)</f>
+        <f t="shared" ref="O45:O46" si="19">RIGHT(N45,M45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="11"/>
@@ -4355,8 +4683,20 @@
         <f t="shared" si="12"/>
         <v>1E+148</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="L46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="16">
+        <v>156</v>
+      </c>
+      <c r="N46" s="17">
+        <f t="shared" si="18"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="O46" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+156</v>
+      </c>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -4841,23 +5181,23 @@
       </c>
       <c r="F60" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>1.00870</v>
-      </c>
-      <c r="G60" s="17" t="e">
+        <v>1.0087후</v>
+      </c>
+      <c r="G60" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>1.0087E+156</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="5"/>
         <v>1.0086999999999999</v>
       </c>
-      <c r="I60" s="16" cm="1">
+      <c r="I60" s="16" t="str" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;10),INDEX(L:L,MATCH(I59,L:L,0)+1,0),I59)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J60" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
@@ -4877,23 +5217,23 @@
       </c>
       <c r="F61" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>2.730</v>
-      </c>
-      <c r="G61" s="17" t="e">
+        <v>2.73후</v>
+      </c>
+      <c r="G61" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>2.7300000000000001E+156</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="5"/>
         <v>2.73</v>
       </c>
-      <c r="I61" s="16" cm="1">
+      <c r="I61" s="16" t="str" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;10),INDEX(L:L,MATCH(I60,L:L,0)+1,0),I60)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J61" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
@@ -4913,23 +5253,23 @@
       </c>
       <c r="F62" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>7.380</v>
-      </c>
-      <c r="G62" s="17" t="e">
+        <v>7.38후</v>
+      </c>
+      <c r="G62" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>7.38E+156</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="5"/>
         <v>7.38</v>
       </c>
-      <c r="I62" s="16" cm="1">
+      <c r="I62" s="16" t="str" cm="1">
         <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;10),INDEX(L:L,MATCH(I61,L:L,0)+1,0),I61)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J62" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
@@ -4949,23 +5289,23 @@
       </c>
       <c r="F63" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>19.930</v>
-      </c>
-      <c r="G63" s="17" t="e">
+        <v>19.93후</v>
+      </c>
+      <c r="G63" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>1.9930000000000003E+157</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="5"/>
         <v>19.930000000000003</v>
       </c>
-      <c r="I63" s="16" cm="1">
+      <c r="I63" s="16" t="str" cm="1">
         <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;10),INDEX(L:L,MATCH(I62,L:L,0)+1,0),I62)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J63" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
@@ -4985,23 +5325,23 @@
       </c>
       <c r="F64" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>53.820</v>
-      </c>
-      <c r="G64" s="17" t="e">
+        <v>53.82후</v>
+      </c>
+      <c r="G64" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>5.382E+157</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="5"/>
         <v>53.82</v>
       </c>
-      <c r="I64" s="16" cm="1">
+      <c r="I64" s="16" t="str" cm="1">
         <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;10),INDEX(L:L,MATCH(I63,L:L,0)+1,0),I63)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J64" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
@@ -5021,23 +5361,23 @@
       </c>
       <c r="F65" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>145.320</v>
-      </c>
-      <c r="G65" s="17" t="e">
+        <v>145.32후</v>
+      </c>
+      <c r="G65" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>1.4531999999999999E+158</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="5"/>
         <v>145.32</v>
       </c>
-      <c r="I65" s="16" cm="1">
+      <c r="I65" s="16" t="str" cm="1">
         <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;10),INDEX(L:L,MATCH(I64,L:L,0)+1,0),I64)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J65" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
@@ -5057,23 +5397,23 @@
       </c>
       <c r="F66" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>392.370</v>
-      </c>
-      <c r="G66" s="17" t="e">
+        <v>392.37후</v>
+      </c>
+      <c r="G66" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>3.9236999999999998E+158</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="5"/>
         <v>392.37</v>
       </c>
-      <c r="I66" s="16" cm="1">
+      <c r="I66" s="16" t="str" cm="1">
         <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;10),INDEX(L:L,MATCH(I65,L:L,0)+1,0),I65)</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J66" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
@@ -5093,23 +5433,23 @@
       </c>
       <c r="F67" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>1059.40</v>
-      </c>
-      <c r="G67" s="17" t="e">
+        <v>1059.4후</v>
+      </c>
+      <c r="G67" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>1.0594000000000001E+159</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="5"/>
         <v>1059.4000000000001</v>
       </c>
-      <c r="I67" s="16" cm="1">
+      <c r="I67" s="16" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;10),INDEX(L:L,MATCH(I66,L:L,0)+1,0),I66)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J67" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
     </row>
     <row r="68" spans="5:24" x14ac:dyDescent="0.3">
@@ -5118,23 +5458,23 @@
       </c>
       <c r="F68" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>2860.380</v>
-      </c>
-      <c r="G68" s="17" t="e">
+        <v>2860.38후</v>
+      </c>
+      <c r="G68" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>2.86038E+159</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="5"/>
         <v>2860.38</v>
       </c>
-      <c r="I68" s="16" cm="1">
+      <c r="I68" s="16" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;10),INDEX(L:L,MATCH(I67,L:L,0)+1,0),I67)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J68" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
     </row>
     <row r="69" spans="5:24" x14ac:dyDescent="0.3">
@@ -5143,32 +5483,32 @@
       </c>
       <c r="F69" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>7723.030</v>
-      </c>
-      <c r="G69" s="17" t="e">
+        <v>7723.03후</v>
+      </c>
+      <c r="G69" s="17">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <v>7.7230299999999999E+159</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="5"/>
         <v>7723.0300000000007</v>
       </c>
-      <c r="I69" s="16" cm="1">
+      <c r="I69" s="16" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;10),INDEX(L:L,MATCH(I68,L:L,0)+1,0),I68)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="16" t="e">
+        <v>후</v>
+      </c>
+      <c r="J69" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+156</v>
       </c>
     </row>
     <row r="70" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
         <v>62</v>
       </c>
-      <c r="F70" s="17" t="e">
+      <c r="F70" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>2.08530</v>
       </c>
       <c r="G70" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5178,9 +5518,9 @@
         <f t="shared" si="5"/>
         <v>2.0853000000000002</v>
       </c>
-      <c r="I70" s="16" t="e" cm="1">
+      <c r="I70" s="16" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;10),INDEX(L:L,MATCH(I69,L:L,0)+1,0),I69)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J70" s="16" t="e">
         <f t="shared" si="12"/>
@@ -5191,9 +5531,9 @@
       <c r="E71" s="16">
         <v>63</v>
       </c>
-      <c r="F71" s="17" t="e">
+      <c r="F71" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>5.640</v>
       </c>
       <c r="G71" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5203,9 +5543,9 @@
         <f t="shared" si="5"/>
         <v>5.64</v>
       </c>
-      <c r="I71" s="16" t="e" cm="1">
+      <c r="I71" s="16" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;10),INDEX(L:L,MATCH(I70,L:L,0)+1,0),I70)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J71" s="16" t="e">
         <f t="shared" si="12"/>
@@ -5216,9 +5556,9 @@
       <c r="E72" s="16">
         <v>64</v>
       </c>
-      <c r="F72" s="17" t="e">
+      <c r="F72" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>15.230</v>
       </c>
       <c r="G72" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5228,9 +5568,9 @@
         <f t="shared" si="5"/>
         <v>15.23</v>
       </c>
-      <c r="I72" s="16" t="e" cm="1">
+      <c r="I72" s="16" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;10),INDEX(L:L,MATCH(I71,L:L,0)+1,0),I71)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J72" s="16" t="e">
         <f t="shared" si="12"/>
@@ -5241,9 +5581,9 @@
       <c r="E73" s="16">
         <v>65</v>
       </c>
-      <c r="F73" s="17" t="e">
+      <c r="F73" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>41.130</v>
       </c>
       <c r="G73" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5253,9 +5593,9 @@
         <f t="shared" si="5"/>
         <v>41.129999999999995</v>
       </c>
-      <c r="I73" s="16" t="e" cm="1">
+      <c r="I73" s="16" cm="1">
         <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;10),INDEX(L:L,MATCH(I72,L:L,0)+1,0),I72)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J73" s="16" t="e">
         <f t="shared" ref="J73:J78" si="26">VLOOKUP(I73,L:O,4,FALSE)</f>
@@ -5266,9 +5606,9 @@
       <c r="E74" s="16">
         <v>66</v>
       </c>
-      <c r="F74" s="17" t="e">
+      <c r="F74" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>111.060</v>
       </c>
       <c r="G74" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5278,9 +5618,9 @@
         <f t="shared" si="5"/>
         <v>111.06</v>
       </c>
-      <c r="I74" s="16" t="e" cm="1">
+      <c r="I74" s="16" cm="1">
         <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;10),INDEX(L:L,MATCH(I73,L:L,0)+1,0),I73)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J74" s="16" t="e">
         <f t="shared" si="26"/>
@@ -5291,9 +5631,9 @@
       <c r="E75" s="16">
         <v>67</v>
       </c>
-      <c r="F75" s="17" t="e">
+      <c r="F75" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>299.870</v>
       </c>
       <c r="G75" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5303,9 +5643,9 @@
         <f t="shared" ref="H75:H78" si="27">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>299.87</v>
       </c>
-      <c r="I75" s="16" t="e" cm="1">
+      <c r="I75" s="16" cm="1">
         <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;10),INDEX(L:L,MATCH(I74,L:L,0)+1,0),I74)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J75" s="16" t="e">
         <f t="shared" si="26"/>
@@ -5316,9 +5656,9 @@
       <c r="E76" s="16">
         <v>68</v>
       </c>
-      <c r="F76" s="17" t="e">
+      <c r="F76" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>809.650</v>
       </c>
       <c r="G76" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5328,9 +5668,9 @@
         <f t="shared" si="27"/>
         <v>809.65</v>
       </c>
-      <c r="I76" s="16" t="e" cm="1">
+      <c r="I76" s="16" cm="1">
         <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;10),INDEX(L:L,MATCH(I75,L:L,0)+1,0),I75)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J76" s="16" t="e">
         <f t="shared" si="26"/>
@@ -5341,9 +5681,9 @@
       <c r="E77" s="16">
         <v>69</v>
       </c>
-      <c r="F77" s="17" t="e">
+      <c r="F77" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>2186.060</v>
       </c>
       <c r="G77" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5353,9 +5693,9 @@
         <f t="shared" si="27"/>
         <v>2186.0600000000004</v>
       </c>
-      <c r="I77" s="16" t="e" cm="1">
+      <c r="I77" s="16" cm="1">
         <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;10),INDEX(L:L,MATCH(I76,L:L,0)+1,0),I76)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J77" s="16" t="e">
         <f t="shared" si="26"/>
@@ -5366,9 +5706,9 @@
       <c r="E78" s="16">
         <v>70</v>
       </c>
-      <c r="F78" s="17" t="e">
+      <c r="F78" s="17" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>5902.370</v>
       </c>
       <c r="G78" s="17" t="e">
         <f t="shared" si="25"/>
@@ -5378,9 +5718,9 @@
         <f t="shared" si="27"/>
         <v>5902.37</v>
       </c>
-      <c r="I78" s="16" t="e" cm="1">
+      <c r="I78" s="16" cm="1">
         <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;10),INDEX(L:L,MATCH(I77,L:L,0)+1,0),I77)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J78" s="16" t="e">
         <f t="shared" si="26"/>

--- a/Assets/06.Table/DragonTowerTable.xlsx
+++ b/Assets/06.Table/DragonTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286D9C5-AF52-44FF-A5D3-94F62F9B042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703405A-DD32-4070-ACA1-70880B7458FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonTowerTable" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,11 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1491,7 @@
         <v>9047</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D61" si="0">D3+1</f>
+        <f t="shared" ref="D18:D46" si="0">D3+1</f>
         <v>2</v>
       </c>
       <c r="E18">
@@ -2669,7 +2673,7 @@
         <v>9047</v>
       </c>
       <c r="D54">
-        <f t="shared" ref="D54:D61" si="1">D48+1</f>
+        <f t="shared" ref="D54:D76" si="1">D48+1</f>
         <v>6</v>
       </c>
       <c r="E54">
@@ -2922,9 +2926,504 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>9047</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>5.382E+157</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>9047</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1.4531999999999999E+158</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>9047</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>3.9236999999999998E+158</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>9047</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1.0593999999999999E+159</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>9047</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2.86038E+159</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>9047</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>7.7230299999999999E+159</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>9047</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2.0853000000000001E+160</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>9047</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>5.6299999999999996E+160</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>9047</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1.5229999999999999E+161</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>9047</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>4.1129999999999999E+161</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>9047</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1.1106000000000001E+162</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>9047</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2.9987E+162</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>9047</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>8.0965000000000005E+162</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>9047</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2.1860999999999999E+163</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>9047</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>5.9023699999999995E+163</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>16800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J7 E8:J31 E32:E61 G32:J61 A8:D61">
+  <conditionalFormatting sqref="A2:J7 E8:J31 A8:D76 E32:E76 G32:J76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2938,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G78" sqref="G64:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4731,8 +5230,20 @@
         <f t="shared" si="12"/>
         <v>1E+148</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="L47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="16">
+        <v>160</v>
+      </c>
+      <c r="N47" s="17">
+        <f t="shared" ref="N47" si="20">POWER(10,M47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="O47" s="17" t="str">
+        <f t="shared" ref="O47" si="21">RIGHT(N47,M47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -4784,11 +5295,11 @@
         <v>41</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" ref="F49:F53" si="20">H49&amp;I49</f>
+        <f t="shared" ref="F49:F53" si="22">H49&amp;I49</f>
         <v>1809.68명</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" ref="G49:G53" si="21">H49*J49</f>
+        <f t="shared" ref="G49:G53" si="23">H49*J49</f>
         <v>1.8096800000000001E+151</v>
       </c>
       <c r="H49" s="17">
@@ -4820,11 +5331,11 @@
         <v>42</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4886.14명</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.8861400000000006E+151</v>
       </c>
       <c r="H50" s="17">
@@ -4856,11 +5367,11 @@
         <v>43</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3193월</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.3192999999999999E+152</v>
       </c>
       <c r="H51" s="17">
@@ -4892,11 +5403,11 @@
         <v>44</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.57월</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.5699999999999999E+152</v>
       </c>
       <c r="H52" s="17">
@@ -4928,11 +5439,11 @@
         <v>45</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.64월</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.6400000000000003E+152</v>
       </c>
       <c r="H53" s="17">
@@ -4964,11 +5475,11 @@
         <v>46</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" ref="F54:F58" si="22">H54&amp;I54</f>
+        <f t="shared" ref="F54:F58" si="24">H54&amp;I54</f>
         <v>26.03월</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" ref="G54:G58" si="23">H54*J54</f>
+        <f t="shared" ref="G54:G58" si="25">H54*J54</f>
         <v>2.6030000000000001E+153</v>
       </c>
       <c r="H54" s="17">
@@ -5000,11 +5511,11 @@
         <v>47</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>70.29월</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.0290000000000005E+153</v>
       </c>
       <c r="H55" s="17">
@@ -5036,11 +5547,11 @@
         <v>48</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>189.79월</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8979E+154</v>
       </c>
       <c r="H56" s="17">
@@ -5072,11 +5583,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>512.44월</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.1243999999999998E+154</v>
       </c>
       <c r="H57" s="17">
@@ -5108,11 +5619,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1383.59월</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.3835900000000001E+155</v>
       </c>
       <c r="H58" s="17">
@@ -5144,11 +5655,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" ref="F59:F78" si="24">H59&amp;I59</f>
+        <f t="shared" ref="F59:F78" si="26">H59&amp;I59</f>
         <v>3735.7월</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" ref="G59:G78" si="25">H59*J59</f>
+        <f t="shared" ref="G59:G78" si="27">H59*J59</f>
         <v>3.7357000000000006E+155</v>
       </c>
       <c r="H59" s="17">
@@ -5180,11 +5691,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0087후</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0087E+156</v>
       </c>
       <c r="H60" s="17">
@@ -5216,11 +5727,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.73후</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.7300000000000001E+156</v>
       </c>
       <c r="H61" s="17">
@@ -5252,11 +5763,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.38후</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.38E+156</v>
       </c>
       <c r="H62" s="17">
@@ -5288,11 +5799,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19.93후</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9930000000000003E+157</v>
       </c>
       <c r="H63" s="17">
@@ -5324,11 +5835,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>53.82후</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.382E+157</v>
       </c>
       <c r="H64" s="17">
@@ -5360,11 +5871,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>145.32후</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.4531999999999999E+158</v>
       </c>
       <c r="H65" s="17">
@@ -5396,11 +5907,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>392.37후</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.9236999999999998E+158</v>
       </c>
       <c r="H66" s="17">
@@ -5432,11 +5943,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1059.4후</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0594000000000001E+159</v>
       </c>
       <c r="H67" s="17">
@@ -5457,11 +5968,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2860.38후</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.86038E+159</v>
       </c>
       <c r="H68" s="17">
@@ -5482,11 +5993,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7723.03후</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.7230299999999999E+159</v>
       </c>
       <c r="H69" s="17">
@@ -5507,24 +6018,24 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>2.08530</v>
-      </c>
-      <c r="G70" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>2.0853단</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="27"/>
+        <v>2.0853000000000001E+160</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="5"/>
         <v>2.0853000000000002</v>
       </c>
-      <c r="I70" s="16" cm="1">
+      <c r="I70" s="16" t="str" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;10),INDEX(L:L,MATCH(I69,L:L,0)+1,0),I69)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="16" t="e">
+        <v>단</v>
+      </c>
+      <c r="J70" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="71" spans="5:24" x14ac:dyDescent="0.3">
@@ -5532,24 +6043,24 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>5.640</v>
-      </c>
-      <c r="G71" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>5.64단</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="27"/>
+        <v>5.6399999999999991E+160</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="5"/>
         <v>5.64</v>
       </c>
-      <c r="I71" s="16" cm="1">
+      <c r="I71" s="16" t="str" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;10),INDEX(L:L,MATCH(I70,L:L,0)+1,0),I70)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="16" t="e">
+        <v>단</v>
+      </c>
+      <c r="J71" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="72" spans="5:24" x14ac:dyDescent="0.3">
@@ -5557,24 +6068,24 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>15.230</v>
-      </c>
-      <c r="G72" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>15.23단</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" si="27"/>
+        <v>1.5230000000000001E+161</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="5"/>
         <v>15.23</v>
       </c>
-      <c r="I72" s="16" cm="1">
+      <c r="I72" s="16" t="str" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;10),INDEX(L:L,MATCH(I71,L:L,0)+1,0),I71)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="16" t="e">
+        <v>단</v>
+      </c>
+      <c r="J72" s="16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="73" spans="5:24" x14ac:dyDescent="0.3">
@@ -5582,24 +6093,24 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>41.130</v>
-      </c>
-      <c r="G73" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>41.13단</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" si="27"/>
+        <v>4.1129999999999994E+161</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="5"/>
         <v>41.129999999999995</v>
       </c>
-      <c r="I73" s="16" cm="1">
+      <c r="I73" s="16" t="str" cm="1">
         <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;10),INDEX(L:L,MATCH(I72,L:L,0)+1,0),I72)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="16" t="e">
-        <f t="shared" ref="J73:J78" si="26">VLOOKUP(I73,L:O,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f t="shared" ref="J73:J78" si="28">VLOOKUP(I73,L:O,4,FALSE)</f>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="74" spans="5:24" x14ac:dyDescent="0.3">
@@ -5607,24 +6118,24 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>111.060</v>
-      </c>
-      <c r="G74" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>111.06단</v>
+      </c>
+      <c r="G74" s="17">
+        <f t="shared" si="27"/>
+        <v>1.1106000000000001E+162</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="5"/>
         <v>111.06</v>
       </c>
-      <c r="I74" s="16" cm="1">
+      <c r="I74" s="16" t="str" cm="1">
         <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;10),INDEX(L:L,MATCH(I73,L:L,0)+1,0),I73)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="75" spans="5:24" x14ac:dyDescent="0.3">
@@ -5632,24 +6143,24 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>299.870</v>
-      </c>
-      <c r="G75" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>299.87단</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" si="27"/>
+        <v>2.9987E+162</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H78" si="27">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
+        <f t="shared" ref="H75:H78" si="29">IF(ROUNDUP(H74*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H74*((100+$B$10)/100)/10000,4),ROUNDUP(H74*((100+$B$10)/100),2))</f>
         <v>299.87</v>
       </c>
-      <c r="I75" s="16" cm="1">
+      <c r="I75" s="16" t="str" cm="1">
         <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;10),INDEX(L:L,MATCH(I74,L:L,0)+1,0),I74)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="76" spans="5:24" x14ac:dyDescent="0.3">
@@ -5657,24 +6168,24 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>809.650</v>
-      </c>
-      <c r="G76" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>809.65단</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" si="27"/>
+        <v>8.0965000000000005E+162</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>809.65</v>
       </c>
-      <c r="I76" s="16" cm="1">
+      <c r="I76" s="16" t="str" cm="1">
         <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;10),INDEX(L:L,MATCH(I75,L:L,0)+1,0),I75)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="77" spans="5:24" x14ac:dyDescent="0.3">
@@ -5682,24 +6193,24 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>2186.060</v>
-      </c>
-      <c r="G77" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>2186.06단</v>
+      </c>
+      <c r="G77" s="17">
+        <f t="shared" si="27"/>
+        <v>2.1860600000000005E+163</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2186.0600000000004</v>
       </c>
-      <c r="I77" s="16" cm="1">
+      <c r="I77" s="16" t="str" cm="1">
         <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;10),INDEX(L:L,MATCH(I76,L:L,0)+1,0),I76)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+160</v>
       </c>
     </row>
     <row r="78" spans="5:24" x14ac:dyDescent="0.3">
@@ -5707,24 +6218,24 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="24"/>
-        <v>5902.370</v>
-      </c>
-      <c r="G78" s="17" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
+        <f t="shared" si="26"/>
+        <v>5902.37단</v>
+      </c>
+      <c r="G78" s="17">
+        <f t="shared" si="27"/>
+        <v>5.9023699999999995E+163</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5902.37</v>
       </c>
-      <c r="I78" s="16" cm="1">
+      <c r="I78" s="16" t="str" cm="1">
         <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;10),INDEX(L:L,MATCH(I77,L:L,0)+1,0),I77)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>단</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+160</v>
       </c>
     </row>
   </sheetData>
